--- a/artfynd/A 34481-2023.xlsx
+++ b/artfynd/A 34481-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111281271</v>
+        <v>111281256</v>
       </c>
       <c r="B2" t="n">
-        <v>89558</v>
+        <v>78612</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1503</v>
+        <v>6464</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>496583.6304501683</v>
+        <v>496677.6582197697</v>
       </c>
       <c r="R2" t="n">
-        <v>6926794.961784514</v>
+        <v>6926790.241205794</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -779,7 +779,7 @@
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>silverlåga av tall</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
@@ -797,10 +797,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111281246</v>
+        <v>111281253</v>
       </c>
       <c r="B3" t="n">
-        <v>77268</v>
+        <v>78578</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -813,21 +813,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>228912</v>
+        <v>6458</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -837,10 +837,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>496624.0570633508</v>
+        <v>496695.2314597658</v>
       </c>
       <c r="R3" t="n">
-        <v>6926920.268809941</v>
+        <v>6926761.083019028</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -896,7 +896,7 @@
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>på björk</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -914,10 +914,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111281267</v>
+        <v>111281264</v>
       </c>
       <c r="B4" t="n">
-        <v>89419</v>
+        <v>96348</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -926,38 +926,42 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1204</v>
+        <v>220787</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr">
         <is>
           <t>Gillberget, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>496665.9024310231</v>
+        <v>496556.108160441</v>
       </c>
       <c r="R4" t="n">
-        <v>6926614.942309056</v>
+        <v>6926608.577955151</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1010,11 +1014,6 @@
       </c>
       <c r="AG4" t="b">
         <v>0</v>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>silverlåga av tall</t>
-        </is>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
@@ -1031,10 +1030,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111281258</v>
+        <v>111281268</v>
       </c>
       <c r="B5" t="n">
-        <v>89864</v>
+        <v>89419</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1047,21 +1046,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5467</v>
+        <v>1204</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Kådvaxskinn</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Phlebia serialis</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Donk</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1071,10 +1070,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>496668.6966633182</v>
+        <v>496621.8333135686</v>
       </c>
       <c r="R5" t="n">
-        <v>6926629.74182343</v>
+        <v>6926554.389060779</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1148,10 +1147,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111281270</v>
+        <v>111281281</v>
       </c>
       <c r="B6" t="n">
-        <v>89558</v>
+        <v>89646</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1164,21 +1163,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1503</v>
+        <v>65</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Fläckporing</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Anthoporia albobrunnea</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
+          <t>(Romell) Karasiński &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1188,10 +1187,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>496563.6550112463</v>
+        <v>496561.0017333628</v>
       </c>
       <c r="R6" t="n">
-        <v>6926739.47607088</v>
+        <v>6926861.591357109</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1265,10 +1264,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111281264</v>
+        <v>111281239</v>
       </c>
       <c r="B7" t="n">
-        <v>96348</v>
+        <v>78107</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1277,42 +1276,38 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>220787</v>
+        <v>6453</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>Gillberget, Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>496556.108160441</v>
+        <v>496575.917928295</v>
       </c>
       <c r="R7" t="n">
-        <v>6926608.577955151</v>
+        <v>6926952.694948904</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1365,6 +1360,11 @@
       </c>
       <c r="AG7" t="b">
         <v>0</v>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>silverved av tall</t>
+        </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
@@ -1381,10 +1381,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111281287</v>
+        <v>111281231</v>
       </c>
       <c r="B8" t="n">
-        <v>90666</v>
+        <v>76513</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1393,25 +1393,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4364</v>
+        <v>314</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Vitskaftad svartspik</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Chaenothecopsis viridialba</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Kremp.) A.F.W.Schmidt</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1421,10 +1421,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>496548.7935943817</v>
+        <v>496689.2077818657</v>
       </c>
       <c r="R8" t="n">
-        <v>6926702.486748385</v>
+        <v>6926759.2387872</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1477,6 +1477,11 @@
       </c>
       <c r="AG8" t="b">
         <v>0</v>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>gammal gran</t>
+        </is>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
@@ -1493,10 +1498,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111281263</v>
+        <v>111281283</v>
       </c>
       <c r="B9" t="n">
-        <v>96348</v>
+        <v>77186</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1505,42 +1510,38 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>220787</v>
+        <v>353</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
+          <t>(Hoffm.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Gillberget, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>496579.6887450082</v>
+        <v>496655.325024083</v>
       </c>
       <c r="R9" t="n">
-        <v>6926565.071416504</v>
+        <v>6926691.739178178</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1593,6 +1594,11 @@
       </c>
       <c r="AG9" t="b">
         <v>0</v>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>silverlåga av tall</t>
+        </is>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
@@ -1609,7 +1615,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111281232</v>
+        <v>111281233</v>
       </c>
       <c r="B10" t="n">
         <v>94134</v>
@@ -1649,10 +1655,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>496707.2746812074</v>
+        <v>496568.949568422</v>
       </c>
       <c r="R10" t="n">
-        <v>6926760.608541816</v>
+        <v>6926932.813421207</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1708,7 +1714,7 @@
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>gammal sälglåga</t>
+          <t>tallåga</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1726,7 +1732,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111281255</v>
+        <v>111281254</v>
       </c>
       <c r="B11" t="n">
         <v>78578</v>
@@ -1766,10 +1772,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>496554.2561587489</v>
+        <v>496629.4488310875</v>
       </c>
       <c r="R11" t="n">
-        <v>6926609.505018027</v>
+        <v>6926755.598279858</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1825,7 +1831,7 @@
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -1843,10 +1849,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111281276</v>
+        <v>111281242</v>
       </c>
       <c r="B12" t="n">
-        <v>77515</v>
+        <v>78605</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1855,25 +1861,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>6462</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1883,10 +1889,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>496637.7400966059</v>
+        <v>496575.966141845</v>
       </c>
       <c r="R12" t="n">
-        <v>6926709.334209003</v>
+        <v>6926548.884896409</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1942,7 +1948,7 @@
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -1960,10 +1966,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111281275</v>
+        <v>111281237</v>
       </c>
       <c r="B13" t="n">
-        <v>77515</v>
+        <v>78107</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1976,21 +1982,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>6453</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2000,10 +2006,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>496692.9323558767</v>
+        <v>496656.1674542476</v>
       </c>
       <c r="R13" t="n">
-        <v>6926778.199715743</v>
+        <v>6926608.013459719</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2059,7 +2065,7 @@
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>silverved av tall</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -2077,10 +2083,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111281237</v>
+        <v>111281235</v>
       </c>
       <c r="B14" t="n">
-        <v>78107</v>
+        <v>89369</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2089,25 +2095,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6453</v>
+        <v>5447</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2117,10 +2123,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>496656.1674542476</v>
+        <v>496545.5054465439</v>
       </c>
       <c r="R14" t="n">
-        <v>6926608.013459719</v>
+        <v>6926658.546561619</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2194,10 +2200,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111281262</v>
+        <v>111281267</v>
       </c>
       <c r="B15" t="n">
-        <v>96348</v>
+        <v>89419</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2206,42 +2212,38 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>220787</v>
+        <v>1204</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>Gillberget, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>496616.7296099121</v>
+        <v>496665.9024310231</v>
       </c>
       <c r="R15" t="n">
-        <v>6926546.530342954</v>
+        <v>6926614.942309056</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2294,6 +2296,11 @@
       </c>
       <c r="AG15" t="b">
         <v>0</v>
+      </c>
+      <c r="AO15" t="inlineStr">
+        <is>
+          <t>silverlåga av tall</t>
+        </is>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
@@ -2310,10 +2317,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111281248</v>
+        <v>111281284</v>
       </c>
       <c r="B16" t="n">
-        <v>77268</v>
+        <v>77186</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2326,21 +2333,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>228912</v>
+        <v>353</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2350,10 +2357,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>496606.9971573526</v>
+        <v>496664.975027544</v>
       </c>
       <c r="R16" t="n">
-        <v>6926542.376992855</v>
+        <v>6926614.018090701</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2409,7 +2416,7 @@
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>silverlåga av tall</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
@@ -2427,10 +2434,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111281284</v>
+        <v>111281276</v>
       </c>
       <c r="B17" t="n">
-        <v>77186</v>
+        <v>77515</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2443,21 +2450,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>353</v>
+        <v>6425</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2467,10 +2474,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>496664.975027544</v>
+        <v>496637.7400966059</v>
       </c>
       <c r="R17" t="n">
-        <v>6926614.018090701</v>
+        <v>6926709.334209003</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2526,7 +2533,7 @@
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>silverlåga av tall</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr"/>
@@ -2544,10 +2551,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111281241</v>
+        <v>111281250</v>
       </c>
       <c r="B18" t="n">
-        <v>89405</v>
+        <v>77268</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2560,21 +2567,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1202</v>
+        <v>228912</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2584,10 +2591,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>496699.8856361908</v>
+        <v>496563.6550112463</v>
       </c>
       <c r="R18" t="n">
-        <v>6926783.280873528</v>
+        <v>6926739.47607088</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2643,7 +2650,7 @@
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>granlåga</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr"/>
@@ -2661,10 +2668,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111281280</v>
+        <v>111281252</v>
       </c>
       <c r="B19" t="n">
-        <v>89646</v>
+        <v>78578</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2673,25 +2680,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>65</v>
+        <v>6458</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Fläckporing</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Anthoporia albobrunnea</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Romell) Karasiński &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2701,10 +2708,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>496626.6329856353</v>
+        <v>496675.8039778076</v>
       </c>
       <c r="R19" t="n">
-        <v>6926719.521743883</v>
+        <v>6926788.855408332</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2760,7 +2767,7 @@
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>silverlåga av tall</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr"/>
@@ -2778,10 +2785,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111281285</v>
+        <v>111281238</v>
       </c>
       <c r="B20" t="n">
-        <v>77186</v>
+        <v>78107</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2794,21 +2801,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>353</v>
+        <v>6453</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2818,10 +2825,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>496579.6358092254</v>
+        <v>496550.6599095054</v>
       </c>
       <c r="R20" t="n">
-        <v>6926964.71679607</v>
+        <v>6926715.436501636</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2877,7 +2884,7 @@
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>silverlåga av tall</t>
+          <t>silverved av tall</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr"/>
@@ -2895,10 +2902,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111281272</v>
+        <v>111281247</v>
       </c>
       <c r="B21" t="n">
-        <v>89558</v>
+        <v>77268</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2907,25 +2914,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1503</v>
+        <v>228912</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2935,10 +2942,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>496568.949568422</v>
+        <v>496618.1179460838</v>
       </c>
       <c r="R21" t="n">
-        <v>6926932.813421207</v>
+        <v>6926545.141185198</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2994,7 +3001,7 @@
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>silverlåga av tall</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr"/>
@@ -3012,10 +3019,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111281269</v>
+        <v>111281262</v>
       </c>
       <c r="B22" t="n">
-        <v>89419</v>
+        <v>96348</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3024,38 +3031,42 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1204</v>
+        <v>220787</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
       <c r="P22" t="inlineStr">
         <is>
           <t>Gillberget, Jmt</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>496563.6550112463</v>
+        <v>496616.7296099121</v>
       </c>
       <c r="R22" t="n">
-        <v>6926739.47607088</v>
+        <v>6926546.530342954</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3108,11 +3119,6 @@
       </c>
       <c r="AG22" t="b">
         <v>0</v>
-      </c>
-      <c r="AO22" t="inlineStr">
-        <is>
-          <t>silverlåga av tall</t>
-        </is>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
@@ -3129,10 +3135,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111281247</v>
+        <v>111281259</v>
       </c>
       <c r="B23" t="n">
-        <v>77268</v>
+        <v>79444</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3145,21 +3151,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>228912</v>
+        <v>1049</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3169,10 +3175,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>496618.1179460838</v>
+        <v>496656.1683827193</v>
       </c>
       <c r="R23" t="n">
-        <v>6926545.141185198</v>
+        <v>6926608.938606965</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3228,7 +3234,7 @@
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>gammal gran</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr"/>
@@ -3246,10 +3252,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111281238</v>
+        <v>111281251</v>
       </c>
       <c r="B24" t="n">
-        <v>78107</v>
+        <v>77268</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3262,21 +3268,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6453</v>
+        <v>228912</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3286,10 +3292,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>496550.6599095054</v>
+        <v>496575.84519295</v>
       </c>
       <c r="R24" t="n">
-        <v>6926715.436501636</v>
+        <v>6926881.927725351</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3345,7 +3351,7 @@
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>silverved av tall</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr"/>
@@ -3363,10 +3369,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111281242</v>
+        <v>111281287</v>
       </c>
       <c r="B25" t="n">
-        <v>78605</v>
+        <v>90666</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3379,21 +3385,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6462</v>
+        <v>4364</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3403,10 +3409,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>496575.966141845</v>
+        <v>496548.7935943817</v>
       </c>
       <c r="R25" t="n">
-        <v>6926548.884896409</v>
+        <v>6926702.486748385</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3459,11 +3465,6 @@
       </c>
       <c r="AG25" t="b">
         <v>0</v>
-      </c>
-      <c r="AO25" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
       </c>
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
@@ -3480,10 +3481,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111281252</v>
+        <v>111281261</v>
       </c>
       <c r="B26" t="n">
-        <v>78578</v>
+        <v>77267</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3496,21 +3497,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6458</v>
+        <v>6446</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3520,10 +3521,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>496675.8039778076</v>
+        <v>496553.8972199965</v>
       </c>
       <c r="R26" t="n">
-        <v>6926788.855408332</v>
+        <v>6926710.344995264</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3579,7 +3580,7 @@
       </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT26" t="inlineStr"/>
@@ -3597,10 +3598,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111281266</v>
+        <v>111281272</v>
       </c>
       <c r="B27" t="n">
-        <v>89401</v>
+        <v>89558</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3609,25 +3610,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1108</v>
+        <v>1503</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(P.Karst.) Miettinen</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3637,10 +3638,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>496675.8109005511</v>
+        <v>496568.949568422</v>
       </c>
       <c r="R27" t="n">
-        <v>6926795.79363091</v>
+        <v>6926932.813421207</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3696,7 +3697,7 @@
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>torrträd av gran</t>
+          <t>silverlåga av tall</t>
         </is>
       </c>
       <c r="AT27" t="inlineStr"/>
@@ -3714,10 +3715,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111281281</v>
+        <v>111281266</v>
       </c>
       <c r="B28" t="n">
-        <v>89646</v>
+        <v>89401</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3726,25 +3727,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>65</v>
+        <v>1108</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Fläckporing</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Anthoporia albobrunnea</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Romell) Karasiński &amp; Niemelä</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3754,10 +3755,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>496561.0017333628</v>
+        <v>496675.8109005511</v>
       </c>
       <c r="R28" t="n">
-        <v>6926861.591357109</v>
+        <v>6926795.79363091</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3813,7 +3814,7 @@
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>silverlåga av tall</t>
+          <t>torrträd av gran</t>
         </is>
       </c>
       <c r="AT28" t="inlineStr"/>
@@ -3831,10 +3832,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111281245</v>
+        <v>111281280</v>
       </c>
       <c r="B29" t="n">
-        <v>90678</v>
+        <v>89646</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3843,25 +3844,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>4366</v>
+        <v>65</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Fläckporing</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Anthoporia albobrunnea</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Romell) Karasiński &amp; Niemelä</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3927,6 +3928,11 @@
       </c>
       <c r="AG29" t="b">
         <v>0</v>
+      </c>
+      <c r="AO29" t="inlineStr">
+        <is>
+          <t>silverlåga av tall</t>
+        </is>
       </c>
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
@@ -3943,10 +3949,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111281279</v>
+        <v>111281244</v>
       </c>
       <c r="B30" t="n">
-        <v>89646</v>
+        <v>90670</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3959,21 +3965,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>65</v>
+        <v>4365</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Fläckporing</t>
+          <t>Smalfotad taggsvamp</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Anthoporia albobrunnea</t>
+          <t>Hydnellum gracilipes</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Romell) Karasiński &amp; Niemelä</t>
+          <t>(P.Karst) P.Karst</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3983,10 +3989,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>496642.9768015828</v>
+        <v>496640.1975648754</v>
       </c>
       <c r="R30" t="n">
-        <v>6926849.481709071</v>
+        <v>6926849.484510714</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4042,7 +4048,7 @@
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>silverlåga av tall</t>
+          <t>under silverlåga av tall</t>
         </is>
       </c>
       <c r="AT30" t="inlineStr"/>
@@ -4060,10 +4066,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111281240</v>
+        <v>111281274</v>
       </c>
       <c r="B31" t="n">
-        <v>78081</v>
+        <v>77515</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4076,21 +4082,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>229821</v>
+        <v>6425</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4100,10 +4106,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>496573.6224250291</v>
+        <v>496615.1943032123</v>
       </c>
       <c r="R31" t="n">
-        <v>6926972.58588778</v>
+        <v>6926859.223161129</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4159,7 +4165,7 @@
       </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t>högstubbe av tall med silverved</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AT31" t="inlineStr"/>
@@ -4406,10 +4412,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111281259</v>
+        <v>111281249</v>
       </c>
       <c r="B34" t="n">
-        <v>79444</v>
+        <v>77268</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4422,21 +4428,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1049</v>
+        <v>228912</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4446,10 +4452,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>496656.1683827193</v>
+        <v>496558.0600370161</v>
       </c>
       <c r="R34" t="n">
-        <v>6926608.938606965</v>
+        <v>6926704.32740648</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4505,7 +4511,7 @@
       </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>gammal gran</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT34" t="inlineStr"/>
@@ -4523,10 +4529,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111281239</v>
+        <v>111281258</v>
       </c>
       <c r="B35" t="n">
-        <v>78107</v>
+        <v>89864</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4539,21 +4545,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6453</v>
+        <v>5467</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Kådvaxskinn</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Phlebia serialis</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Fr.:Fr.) Donk</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4563,10 +4569,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>496575.917928295</v>
+        <v>496668.6966633182</v>
       </c>
       <c r="R35" t="n">
-        <v>6926952.694948904</v>
+        <v>6926629.74182343</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4622,7 +4628,7 @@
       </c>
       <c r="AO35" t="inlineStr">
         <is>
-          <t>silverved av tall</t>
+          <t>silverlåga av tall</t>
         </is>
       </c>
       <c r="AT35" t="inlineStr"/>
@@ -4640,10 +4646,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111281250</v>
+        <v>111281232</v>
       </c>
       <c r="B36" t="n">
-        <v>77268</v>
+        <v>94134</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4656,21 +4662,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>228912</v>
+        <v>53</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4680,10 +4686,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>496563.6550112463</v>
+        <v>496707.2746812074</v>
       </c>
       <c r="R36" t="n">
-        <v>6926739.47607088</v>
+        <v>6926760.608541816</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4739,7 +4745,7 @@
       </c>
       <c r="AO36" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>gammal sälglåga</t>
         </is>
       </c>
       <c r="AT36" t="inlineStr"/>
@@ -4757,10 +4763,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111281265</v>
+        <v>111281271</v>
       </c>
       <c r="B37" t="n">
-        <v>96348</v>
+        <v>89558</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4773,38 +4779,34 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>220787</v>
+        <v>1503</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
+          <t>(P.Karst.) Miettinen</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
           <t>Gillberget, Jmt</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>496555.6884360826</v>
+        <v>496583.6304501683</v>
       </c>
       <c r="R37" t="n">
-        <v>6926650.672367671</v>
+        <v>6926794.961784514</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4857,6 +4859,11 @@
       </c>
       <c r="AG37" t="b">
         <v>0</v>
+      </c>
+      <c r="AO37" t="inlineStr">
+        <is>
+          <t>silverlåga av tall</t>
+        </is>
       </c>
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
@@ -4873,10 +4880,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111281288</v>
+        <v>111281265</v>
       </c>
       <c r="B38" t="n">
-        <v>90666</v>
+        <v>96348</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4885,38 +4892,42 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>4364</v>
+        <v>220787</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
       <c r="P38" t="inlineStr">
         <is>
           <t>Gillberget, Jmt</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>496568.949568422</v>
+        <v>496555.6884360826</v>
       </c>
       <c r="R38" t="n">
-        <v>6926932.813421207</v>
+        <v>6926650.672367671</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4985,7 +4996,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111281253</v>
+        <v>111281255</v>
       </c>
       <c r="B39" t="n">
         <v>78578</v>
@@ -5025,10 +5036,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>496695.2314597658</v>
+        <v>496554.2561587489</v>
       </c>
       <c r="R39" t="n">
-        <v>6926761.083019028</v>
+        <v>6926609.505018027</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5084,7 +5095,7 @@
       </c>
       <c r="AO39" t="inlineStr">
         <is>
-          <t>på björk</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AT39" t="inlineStr"/>
@@ -5102,10 +5113,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111281277</v>
+        <v>111281241</v>
       </c>
       <c r="B40" t="n">
-        <v>77515</v>
+        <v>89405</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5118,21 +5129,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5142,10 +5153,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>496624.6291979352</v>
+        <v>496699.8856361908</v>
       </c>
       <c r="R40" t="n">
-        <v>6926570.576543604</v>
+        <v>6926783.280873528</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5201,7 +5212,7 @@
       </c>
       <c r="AO40" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>granlåga</t>
         </is>
       </c>
       <c r="AT40" t="inlineStr"/>
@@ -5219,10 +5230,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111281283</v>
+        <v>111281270</v>
       </c>
       <c r="B41" t="n">
-        <v>77186</v>
+        <v>89558</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5231,25 +5242,25 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>353</v>
+        <v>1503</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(P.Karst.) Miettinen</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5259,10 +5270,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>496655.325024083</v>
+        <v>496563.6550112463</v>
       </c>
       <c r="R41" t="n">
-        <v>6926691.739178178</v>
+        <v>6926739.47607088</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5336,10 +5347,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111281231</v>
+        <v>111281285</v>
       </c>
       <c r="B42" t="n">
-        <v>76513</v>
+        <v>77186</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5352,21 +5363,21 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>314</v>
+        <v>353</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Vitskaftad svartspik</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Chaenothecopsis viridialba</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Kremp.) A.F.W.Schmidt</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5376,10 +5387,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>496689.2077818657</v>
+        <v>496579.6358092254</v>
       </c>
       <c r="R42" t="n">
-        <v>6926759.2387872</v>
+        <v>6926964.71679607</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5435,7 +5446,7 @@
       </c>
       <c r="AO42" t="inlineStr">
         <is>
-          <t>gammal gran</t>
+          <t>silverlåga av tall</t>
         </is>
       </c>
       <c r="AT42" t="inlineStr"/>
@@ -5453,10 +5464,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111281251</v>
+        <v>111281279</v>
       </c>
       <c r="B43" t="n">
-        <v>77268</v>
+        <v>89646</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5465,25 +5476,25 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>228912</v>
+        <v>65</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Fläckporing</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Anthoporia albobrunnea</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Romell) Karasiński &amp; Niemelä</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5493,10 +5504,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>496575.84519295</v>
+        <v>496642.9768015828</v>
       </c>
       <c r="R43" t="n">
-        <v>6926881.927725351</v>
+        <v>6926849.481709071</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5552,7 +5563,7 @@
       </c>
       <c r="AO43" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>silverlåga av tall</t>
         </is>
       </c>
       <c r="AT43" t="inlineStr"/>
@@ -5570,10 +5581,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111281254</v>
+        <v>111281263</v>
       </c>
       <c r="B44" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5582,38 +5593,42 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
       <c r="P44" t="inlineStr">
         <is>
           <t>Gillberget, Jmt</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>496629.4488310875</v>
+        <v>496579.6887450082</v>
       </c>
       <c r="R44" t="n">
-        <v>6926755.598279858</v>
+        <v>6926565.071416504</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5666,11 +5681,6 @@
       </c>
       <c r="AG44" t="b">
         <v>0</v>
-      </c>
-      <c r="AO44" t="inlineStr">
-        <is>
-          <t>asp</t>
-        </is>
       </c>
       <c r="AT44" t="inlineStr"/>
       <c r="AW44" t="inlineStr">
@@ -5687,7 +5697,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111281249</v>
+        <v>111281248</v>
       </c>
       <c r="B45" t="n">
         <v>77268</v>
@@ -5727,10 +5737,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>496558.0600370161</v>
+        <v>496606.9971573526</v>
       </c>
       <c r="R45" t="n">
-        <v>6926704.32740648</v>
+        <v>6926542.376992855</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5804,10 +5814,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111281235</v>
+        <v>111281246</v>
       </c>
       <c r="B46" t="n">
-        <v>89369</v>
+        <v>77268</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5816,25 +5826,25 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>5447</v>
+        <v>228912</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5844,10 +5854,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>496545.5054465439</v>
+        <v>496624.0570633508</v>
       </c>
       <c r="R46" t="n">
-        <v>6926658.546561619</v>
+        <v>6926920.268809941</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5903,7 +5913,7 @@
       </c>
       <c r="AO46" t="inlineStr">
         <is>
-          <t>silverved av tall</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT46" t="inlineStr"/>
@@ -5921,10 +5931,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111281261</v>
+        <v>111281269</v>
       </c>
       <c r="B47" t="n">
-        <v>77267</v>
+        <v>89419</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5937,21 +5947,21 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6446</v>
+        <v>1204</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5961,10 +5971,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>496553.8972199965</v>
+        <v>496563.6550112463</v>
       </c>
       <c r="R47" t="n">
-        <v>6926710.344995264</v>
+        <v>6926739.47607088</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -6020,7 +6030,7 @@
       </c>
       <c r="AO47" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>silverlåga av tall</t>
         </is>
       </c>
       <c r="AT47" t="inlineStr"/>
@@ -6038,10 +6048,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111281233</v>
+        <v>111281275</v>
       </c>
       <c r="B48" t="n">
-        <v>94134</v>
+        <v>77515</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6054,21 +6064,21 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>53</v>
+        <v>6425</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -6078,10 +6088,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>496568.949568422</v>
+        <v>496692.9323558767</v>
       </c>
       <c r="R48" t="n">
-        <v>6926932.813421207</v>
+        <v>6926778.199715743</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6137,7 +6147,7 @@
       </c>
       <c r="AO48" t="inlineStr">
         <is>
-          <t>tallåga</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AT48" t="inlineStr"/>
@@ -6155,10 +6165,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111281256</v>
+        <v>111281240</v>
       </c>
       <c r="B49" t="n">
-        <v>78612</v>
+        <v>78081</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6167,25 +6177,25 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6464</v>
+        <v>229821</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -6195,10 +6205,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>496677.6582197697</v>
+        <v>496573.6224250291</v>
       </c>
       <c r="R49" t="n">
-        <v>6926790.241205794</v>
+        <v>6926972.58588778</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6254,7 +6264,7 @@
       </c>
       <c r="AO49" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>högstubbe av tall med silverved</t>
         </is>
       </c>
       <c r="AT49" t="inlineStr"/>
@@ -6272,10 +6282,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111281268</v>
+        <v>111281277</v>
       </c>
       <c r="B50" t="n">
-        <v>89419</v>
+        <v>77515</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6288,21 +6298,21 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>1204</v>
+        <v>6425</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6312,10 +6322,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>496621.8333135686</v>
+        <v>496624.6291979352</v>
       </c>
       <c r="R50" t="n">
-        <v>6926554.389060779</v>
+        <v>6926570.576543604</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6371,7 +6381,7 @@
       </c>
       <c r="AO50" t="inlineStr">
         <is>
-          <t>silverlåga av tall</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AT50" t="inlineStr"/>
@@ -6506,10 +6516,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111281274</v>
+        <v>111281288</v>
       </c>
       <c r="B52" t="n">
-        <v>77515</v>
+        <v>90666</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6518,25 +6528,25 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>6425</v>
+        <v>4364</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6546,10 +6556,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>496615.1943032123</v>
+        <v>496568.949568422</v>
       </c>
       <c r="R52" t="n">
-        <v>6926859.223161129</v>
+        <v>6926932.813421207</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6602,11 +6612,6 @@
       </c>
       <c r="AG52" t="b">
         <v>0</v>
-      </c>
-      <c r="AO52" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
       </c>
       <c r="AT52" t="inlineStr"/>
       <c r="AW52" t="inlineStr">
@@ -6623,10 +6628,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111281244</v>
+        <v>111281245</v>
       </c>
       <c r="B53" t="n">
-        <v>90670</v>
+        <v>90678</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6635,25 +6640,25 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>4365</v>
+        <v>4366</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Smalfotad taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Hydnellum gracilipes</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(P.Karst) P.Karst</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6663,10 +6668,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>496640.1975648754</v>
+        <v>496626.6329856353</v>
       </c>
       <c r="R53" t="n">
-        <v>6926849.484510714</v>
+        <v>6926719.521743883</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6719,11 +6724,6 @@
       </c>
       <c r="AG53" t="b">
         <v>0</v>
-      </c>
-      <c r="AO53" t="inlineStr">
-        <is>
-          <t>under silverlåga av tall</t>
-        </is>
       </c>
       <c r="AT53" t="inlineStr"/>
       <c r="AW53" t="inlineStr">
@@ -6740,10 +6740,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111536642</v>
+        <v>111536739</v>
       </c>
       <c r="B54" t="n">
-        <v>89965</v>
+        <v>78578</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6752,48 +6752,39 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>760</v>
+        <v>6458</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Doftticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Haploporus odorus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Sommerf.) Bondartsev &amp; Singer</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Gillberget (Gillberget), Jmt</t>
+          <t>Gillån (Gillån), Jmt</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>496681.7691028511</v>
+        <v>496697.6617160611</v>
       </c>
       <c r="R54" t="n">
-        <v>6926731.955436752</v>
+        <v>6926876.254308967</v>
       </c>
       <c r="S54" t="n">
         <v>20</v>
@@ -6862,10 +6853,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111536659</v>
+        <v>111536642</v>
       </c>
       <c r="B55" t="n">
-        <v>78578</v>
+        <v>89965</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6874,28 +6865,37 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>6458</v>
+        <v>760</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Doftticka</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Haploporus odorus</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr"/>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
@@ -6903,10 +6903,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>496671.579133013</v>
+        <v>496681.7691028511</v>
       </c>
       <c r="R55" t="n">
-        <v>6926732.890714952</v>
+        <v>6926731.955436752</v>
       </c>
       <c r="S55" t="n">
         <v>20</v>
@@ -6975,7 +6975,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111536739</v>
+        <v>111536659</v>
       </c>
       <c r="B56" t="n">
         <v>78578</v>
@@ -7012,14 +7012,14 @@
       <c r="K56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Gillån (Gillån), Jmt</t>
+          <t>Gillberget (Gillberget), Jmt</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>496697.6617160611</v>
+        <v>496671.579133013</v>
       </c>
       <c r="R56" t="n">
-        <v>6926876.254308967</v>
+        <v>6926732.890714952</v>
       </c>
       <c r="S56" t="n">
         <v>20</v>

--- a/artfynd/A 34481-2023.xlsx
+++ b/artfynd/A 34481-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111281256</v>
+        <v>111281248</v>
       </c>
       <c r="B2" t="n">
-        <v>78612</v>
+        <v>77268</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6464</v>
+        <v>228912</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>496677.6582197697</v>
+        <v>496606.9971573526</v>
       </c>
       <c r="R2" t="n">
-        <v>6926790.241205794</v>
+        <v>6926542.376992855</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -779,7 +779,7 @@
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
@@ -797,10 +797,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111281253</v>
+        <v>111281256</v>
       </c>
       <c r="B3" t="n">
-        <v>78578</v>
+        <v>78612</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,25 +809,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6458</v>
+        <v>6464</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -837,10 +837,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>496695.2314597658</v>
+        <v>496677.6582197697</v>
       </c>
       <c r="R3" t="n">
-        <v>6926761.083019028</v>
+        <v>6926790.241205794</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -896,7 +896,7 @@
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>på björk</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -914,10 +914,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111281264</v>
+        <v>111281271</v>
       </c>
       <c r="B4" t="n">
-        <v>96348</v>
+        <v>89558</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -930,38 +930,34 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>220787</v>
+        <v>1503</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
+          <t>(P.Karst.) Miettinen</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Gillberget, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>496556.108160441</v>
+        <v>496583.6304501683</v>
       </c>
       <c r="R4" t="n">
-        <v>6926608.577955151</v>
+        <v>6926794.961784514</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1014,6 +1010,11 @@
       </c>
       <c r="AG4" t="b">
         <v>0</v>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>silverlåga av tall</t>
+        </is>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
@@ -1030,10 +1031,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111281268</v>
+        <v>111281239</v>
       </c>
       <c r="B5" t="n">
-        <v>89419</v>
+        <v>78107</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1046,21 +1047,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1204</v>
+        <v>6453</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1070,10 +1071,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>496621.8333135686</v>
+        <v>496575.917928295</v>
       </c>
       <c r="R5" t="n">
-        <v>6926554.389060779</v>
+        <v>6926952.694948904</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1129,7 +1130,7 @@
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>silverlåga av tall</t>
+          <t>silverved av tall</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1147,10 +1148,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111281281</v>
+        <v>111281283</v>
       </c>
       <c r="B6" t="n">
-        <v>89646</v>
+        <v>77186</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1159,25 +1160,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>65</v>
+        <v>353</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Fläckporing</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Anthoporia albobrunnea</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Romell) Karasiński &amp; Niemelä</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1187,10 +1188,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>496561.0017333628</v>
+        <v>496655.325024083</v>
       </c>
       <c r="R6" t="n">
-        <v>6926861.591357109</v>
+        <v>6926691.739178178</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1264,10 +1265,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111281239</v>
+        <v>111281289</v>
       </c>
       <c r="B7" t="n">
-        <v>78107</v>
+        <v>90666</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1276,25 +1277,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6453</v>
+        <v>4364</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1304,10 +1305,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>496575.917928295</v>
+        <v>496579.6391333495</v>
       </c>
       <c r="R7" t="n">
-        <v>6926952.694948904</v>
+        <v>6926967.954464672</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1360,11 +1361,6 @@
       </c>
       <c r="AG7" t="b">
         <v>0</v>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>silverved av tall</t>
-        </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
@@ -1381,10 +1377,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111281231</v>
+        <v>111281261</v>
       </c>
       <c r="B8" t="n">
-        <v>76513</v>
+        <v>77267</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1397,21 +1393,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>314</v>
+        <v>6446</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Vitskaftad svartspik</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Chaenothecopsis viridialba</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Kremp.) A.F.W.Schmidt</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1421,10 +1417,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>496689.2077818657</v>
+        <v>496553.8972199965</v>
       </c>
       <c r="R8" t="n">
-        <v>6926759.2387872</v>
+        <v>6926710.344995264</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1480,7 +1476,7 @@
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>gammal gran</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1498,10 +1494,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111281283</v>
+        <v>111281264</v>
       </c>
       <c r="B9" t="n">
-        <v>77186</v>
+        <v>96348</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1510,38 +1506,42 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>353</v>
+        <v>220787</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr">
         <is>
           <t>Gillberget, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>496655.325024083</v>
+        <v>496556.108160441</v>
       </c>
       <c r="R9" t="n">
-        <v>6926691.739178178</v>
+        <v>6926608.577955151</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1594,11 +1594,6 @@
       </c>
       <c r="AG9" t="b">
         <v>0</v>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>silverlåga av tall</t>
-        </is>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
@@ -1615,7 +1610,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111281233</v>
+        <v>111281232</v>
       </c>
       <c r="B10" t="n">
         <v>94134</v>
@@ -1655,10 +1650,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>496568.949568422</v>
+        <v>496707.2746812074</v>
       </c>
       <c r="R10" t="n">
-        <v>6926932.813421207</v>
+        <v>6926760.608541816</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1714,7 +1709,7 @@
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>tallåga</t>
+          <t>gammal sälglåga</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1732,10 +1727,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111281254</v>
+        <v>111281240</v>
       </c>
       <c r="B11" t="n">
-        <v>78578</v>
+        <v>78081</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1748,21 +1743,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6458</v>
+        <v>229821</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1772,10 +1767,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>496629.4488310875</v>
+        <v>496573.6224250291</v>
       </c>
       <c r="R11" t="n">
-        <v>6926755.598279858</v>
+        <v>6926972.58588778</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1831,7 +1826,7 @@
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>högstubbe av tall med silverved</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -2083,10 +2078,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111281235</v>
+        <v>111281250</v>
       </c>
       <c r="B14" t="n">
-        <v>89369</v>
+        <v>77268</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2095,25 +2090,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5447</v>
+        <v>228912</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2123,10 +2118,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>496545.5054465439</v>
+        <v>496563.6550112463</v>
       </c>
       <c r="R14" t="n">
-        <v>6926658.546561619</v>
+        <v>6926739.47607088</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2182,7 +2177,7 @@
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>silverved av tall</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
@@ -2200,10 +2195,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111281267</v>
+        <v>111281287</v>
       </c>
       <c r="B15" t="n">
-        <v>89419</v>
+        <v>90666</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2212,25 +2207,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1204</v>
+        <v>4364</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2240,10 +2235,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>496665.9024310231</v>
+        <v>496548.7935943817</v>
       </c>
       <c r="R15" t="n">
-        <v>6926614.942309056</v>
+        <v>6926702.486748385</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2296,11 +2291,6 @@
       </c>
       <c r="AG15" t="b">
         <v>0</v>
-      </c>
-      <c r="AO15" t="inlineStr">
-        <is>
-          <t>silverlåga av tall</t>
-        </is>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
@@ -2317,10 +2307,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111281284</v>
+        <v>111281251</v>
       </c>
       <c r="B16" t="n">
-        <v>77186</v>
+        <v>77268</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2333,21 +2323,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>353</v>
+        <v>228912</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2357,10 +2347,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>496664.975027544</v>
+        <v>496575.84519295</v>
       </c>
       <c r="R16" t="n">
-        <v>6926614.018090701</v>
+        <v>6926881.927725351</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2416,7 +2406,7 @@
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>silverlåga av tall</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
@@ -2434,10 +2424,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111281276</v>
+        <v>111281284</v>
       </c>
       <c r="B17" t="n">
-        <v>77515</v>
+        <v>77186</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2450,21 +2440,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6425</v>
+        <v>353</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2474,10 +2464,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>496637.7400966059</v>
+        <v>496664.975027544</v>
       </c>
       <c r="R17" t="n">
-        <v>6926709.334209003</v>
+        <v>6926614.018090701</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2533,7 +2523,7 @@
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>silverlåga av tall</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr"/>
@@ -2551,10 +2541,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111281250</v>
+        <v>111281233</v>
       </c>
       <c r="B18" t="n">
-        <v>77268</v>
+        <v>94134</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2567,21 +2557,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>228912</v>
+        <v>53</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2591,10 +2581,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>496563.6550112463</v>
+        <v>496568.949568422</v>
       </c>
       <c r="R18" t="n">
-        <v>6926739.47607088</v>
+        <v>6926932.813421207</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2650,7 +2640,7 @@
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>tallåga</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr"/>
@@ -2668,10 +2658,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111281252</v>
+        <v>111281266</v>
       </c>
       <c r="B19" t="n">
-        <v>78578</v>
+        <v>89401</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2684,21 +2674,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6458</v>
+        <v>1108</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2708,10 +2698,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>496675.8039778076</v>
+        <v>496675.8109005511</v>
       </c>
       <c r="R19" t="n">
-        <v>6926788.855408332</v>
+        <v>6926795.79363091</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2767,7 +2757,7 @@
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>torrträd av gran</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr"/>
@@ -2902,10 +2892,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111281247</v>
+        <v>111281245</v>
       </c>
       <c r="B21" t="n">
-        <v>77268</v>
+        <v>90678</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2914,25 +2904,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>228912</v>
+        <v>4366</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2942,10 +2932,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>496618.1179460838</v>
+        <v>496626.6329856353</v>
       </c>
       <c r="R21" t="n">
-        <v>6926545.141185198</v>
+        <v>6926719.521743883</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2998,11 +2988,6 @@
       </c>
       <c r="AG21" t="b">
         <v>0</v>
-      </c>
-      <c r="AO21" t="inlineStr">
-        <is>
-          <t>brandstubbe</t>
-        </is>
       </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
@@ -3019,10 +3004,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111281262</v>
+        <v>111281275</v>
       </c>
       <c r="B22" t="n">
-        <v>96348</v>
+        <v>77515</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3031,42 +3016,38 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>220787</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>Gillberget, Jmt</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>496616.7296099121</v>
+        <v>496692.9323558767</v>
       </c>
       <c r="R22" t="n">
-        <v>6926546.530342954</v>
+        <v>6926778.199715743</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3119,6 +3100,11 @@
       </c>
       <c r="AG22" t="b">
         <v>0</v>
+      </c>
+      <c r="AO22" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
@@ -3252,7 +3238,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111281251</v>
+        <v>111281247</v>
       </c>
       <c r="B24" t="n">
         <v>77268</v>
@@ -3292,10 +3278,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>496575.84519295</v>
+        <v>496618.1179460838</v>
       </c>
       <c r="R24" t="n">
-        <v>6926881.927725351</v>
+        <v>6926545.141185198</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3369,10 +3355,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111281287</v>
+        <v>111281258</v>
       </c>
       <c r="B25" t="n">
-        <v>90666</v>
+        <v>89864</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3381,25 +3367,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>4364</v>
+        <v>5467</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Kådvaxskinn</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Phlebia serialis</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.:Fr.) Donk</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3409,10 +3395,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>496548.7935943817</v>
+        <v>496668.6966633182</v>
       </c>
       <c r="R25" t="n">
-        <v>6926702.486748385</v>
+        <v>6926629.74182343</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3465,6 +3451,11 @@
       </c>
       <c r="AG25" t="b">
         <v>0</v>
+      </c>
+      <c r="AO25" t="inlineStr">
+        <is>
+          <t>silverlåga av tall</t>
+        </is>
       </c>
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
@@ -3481,10 +3472,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111281261</v>
+        <v>111281285</v>
       </c>
       <c r="B26" t="n">
-        <v>77267</v>
+        <v>77186</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3497,21 +3488,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6446</v>
+        <v>353</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3521,10 +3512,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>496553.8972199965</v>
+        <v>496579.6358092254</v>
       </c>
       <c r="R26" t="n">
-        <v>6926710.344995264</v>
+        <v>6926964.71679607</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3580,7 +3571,7 @@
       </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>silverlåga av tall</t>
         </is>
       </c>
       <c r="AT26" t="inlineStr"/>
@@ -3598,7 +3589,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111281272</v>
+        <v>111281270</v>
       </c>
       <c r="B27" t="n">
         <v>89558</v>
@@ -3638,10 +3629,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>496568.949568422</v>
+        <v>496563.6550112463</v>
       </c>
       <c r="R27" t="n">
-        <v>6926932.813421207</v>
+        <v>6926739.47607088</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3715,10 +3706,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111281266</v>
+        <v>111281265</v>
       </c>
       <c r="B28" t="n">
-        <v>89401</v>
+        <v>96348</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3727,38 +3718,42 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1108</v>
+        <v>220787</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
       <c r="P28" t="inlineStr">
         <is>
           <t>Gillberget, Jmt</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>496675.8109005511</v>
+        <v>496555.6884360826</v>
       </c>
       <c r="R28" t="n">
-        <v>6926795.79363091</v>
+        <v>6926650.672367671</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3811,11 +3806,6 @@
       </c>
       <c r="AG28" t="b">
         <v>0</v>
-      </c>
-      <c r="AO28" t="inlineStr">
-        <is>
-          <t>torrträd av gran</t>
-        </is>
       </c>
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
@@ -3832,10 +3822,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111281280</v>
+        <v>111281268</v>
       </c>
       <c r="B29" t="n">
-        <v>89646</v>
+        <v>89419</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3844,25 +3834,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>65</v>
+        <v>1204</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Fläckporing</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Anthoporia albobrunnea</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Romell) Karasiński &amp; Niemelä</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3872,10 +3862,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>496626.6329856353</v>
+        <v>496621.8333135686</v>
       </c>
       <c r="R29" t="n">
-        <v>6926719.521743883</v>
+        <v>6926554.389060779</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3949,10 +3939,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111281244</v>
+        <v>111281282</v>
       </c>
       <c r="B30" t="n">
-        <v>90670</v>
+        <v>77186</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3961,25 +3951,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>4365</v>
+        <v>353</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Smalfotad taggsvamp</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Hydnellum gracilipes</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(P.Karst) P.Karst</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3989,10 +3979,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>496640.1975648754</v>
+        <v>496633.1606611336</v>
       </c>
       <c r="R30" t="n">
-        <v>6926849.484510714</v>
+        <v>6926761.607719867</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4048,7 +4038,7 @@
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>under silverlåga av tall</t>
+          <t>silverlåga av tall</t>
         </is>
       </c>
       <c r="AT30" t="inlineStr"/>
@@ -4066,10 +4056,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111281274</v>
+        <v>111281288</v>
       </c>
       <c r="B31" t="n">
-        <v>77515</v>
+        <v>90666</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4078,25 +4068,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6425</v>
+        <v>4364</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4106,10 +4096,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>496615.1943032123</v>
+        <v>496568.949568422</v>
       </c>
       <c r="R31" t="n">
-        <v>6926859.223161129</v>
+        <v>6926932.813421207</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4162,11 +4152,6 @@
       </c>
       <c r="AG31" t="b">
         <v>0</v>
-      </c>
-      <c r="AO31" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
       </c>
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
@@ -4183,10 +4168,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111281289</v>
+        <v>111281246</v>
       </c>
       <c r="B32" t="n">
-        <v>90666</v>
+        <v>77268</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4195,25 +4180,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>4364</v>
+        <v>228912</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4223,10 +4208,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>496579.6391333495</v>
+        <v>496624.0570633508</v>
       </c>
       <c r="R32" t="n">
-        <v>6926967.954464672</v>
+        <v>6926920.268809941</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4279,6 +4264,11 @@
       </c>
       <c r="AG32" t="b">
         <v>0</v>
+      </c>
+      <c r="AO32" t="inlineStr">
+        <is>
+          <t>brandstubbe</t>
+        </is>
       </c>
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
@@ -4295,10 +4285,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111281282</v>
+        <v>111281274</v>
       </c>
       <c r="B33" t="n">
-        <v>77186</v>
+        <v>77515</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4311,21 +4301,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>353</v>
+        <v>6425</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4335,10 +4325,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>496633.1606611336</v>
+        <v>496615.1943032123</v>
       </c>
       <c r="R33" t="n">
-        <v>6926761.607719867</v>
+        <v>6926859.223161129</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4394,7 +4384,7 @@
       </c>
       <c r="AO33" t="inlineStr">
         <is>
-          <t>silverlåga av tall</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AT33" t="inlineStr"/>
@@ -4412,10 +4402,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111281249</v>
+        <v>111281252</v>
       </c>
       <c r="B34" t="n">
-        <v>77268</v>
+        <v>78578</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4428,21 +4418,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>228912</v>
+        <v>6458</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4452,10 +4442,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>496558.0600370161</v>
+        <v>496675.8039778076</v>
       </c>
       <c r="R34" t="n">
-        <v>6926704.32740648</v>
+        <v>6926788.855408332</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4511,7 +4501,7 @@
       </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AT34" t="inlineStr"/>
@@ -4529,10 +4519,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111281258</v>
+        <v>111281255</v>
       </c>
       <c r="B35" t="n">
-        <v>89864</v>
+        <v>78578</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4545,21 +4535,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>5467</v>
+        <v>6458</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Kådvaxskinn</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Phlebia serialis</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Donk</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4569,10 +4559,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>496668.6966633182</v>
+        <v>496554.2561587489</v>
       </c>
       <c r="R35" t="n">
-        <v>6926629.74182343</v>
+        <v>6926609.505018027</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4628,7 +4618,7 @@
       </c>
       <c r="AO35" t="inlineStr">
         <is>
-          <t>silverlåga av tall</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AT35" t="inlineStr"/>
@@ -4646,10 +4636,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111281232</v>
+        <v>111281280</v>
       </c>
       <c r="B36" t="n">
-        <v>94134</v>
+        <v>89646</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4658,25 +4648,25 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Fläckporing</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Anthoporia albobrunnea</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Romell) Karasiński &amp; Niemelä</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4686,10 +4676,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>496707.2746812074</v>
+        <v>496626.6329856353</v>
       </c>
       <c r="R36" t="n">
-        <v>6926760.608541816</v>
+        <v>6926719.521743883</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4745,7 +4735,7 @@
       </c>
       <c r="AO36" t="inlineStr">
         <is>
-          <t>gammal sälglåga</t>
+          <t>silverlåga av tall</t>
         </is>
       </c>
       <c r="AT36" t="inlineStr"/>
@@ -4763,10 +4753,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111281271</v>
+        <v>111281279</v>
       </c>
       <c r="B37" t="n">
-        <v>89558</v>
+        <v>89646</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4779,21 +4769,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1503</v>
+        <v>65</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Fläckporing</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Anthoporia albobrunnea</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
+          <t>(Romell) Karasiński &amp; Niemelä</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4803,10 +4793,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>496583.6304501683</v>
+        <v>496642.9768015828</v>
       </c>
       <c r="R37" t="n">
-        <v>6926794.961784514</v>
+        <v>6926849.481709071</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4880,10 +4870,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111281265</v>
+        <v>111281277</v>
       </c>
       <c r="B38" t="n">
-        <v>96348</v>
+        <v>77515</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4892,42 +4882,38 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>220787</v>
+        <v>6425</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
           <t>Gillberget, Jmt</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>496555.6884360826</v>
+        <v>496624.6291979352</v>
       </c>
       <c r="R38" t="n">
-        <v>6926650.672367671</v>
+        <v>6926570.576543604</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4980,6 +4966,11 @@
       </c>
       <c r="AG38" t="b">
         <v>0</v>
+      </c>
+      <c r="AO38" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
       </c>
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
@@ -4996,10 +4987,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111281255</v>
+        <v>111281231</v>
       </c>
       <c r="B39" t="n">
-        <v>78578</v>
+        <v>76513</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5012,21 +5003,21 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6458</v>
+        <v>314</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vitskaftad svartspik</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Chaenothecopsis viridialba</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Kremp.) A.F.W.Schmidt</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -5036,10 +5027,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>496554.2561587489</v>
+        <v>496689.2077818657</v>
       </c>
       <c r="R39" t="n">
-        <v>6926609.505018027</v>
+        <v>6926759.2387872</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5095,7 +5086,7 @@
       </c>
       <c r="AO39" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gammal gran</t>
         </is>
       </c>
       <c r="AT39" t="inlineStr"/>
@@ -5113,10 +5104,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111281241</v>
+        <v>111281267</v>
       </c>
       <c r="B40" t="n">
-        <v>89405</v>
+        <v>89419</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5129,21 +5120,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5153,10 +5144,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>496699.8856361908</v>
+        <v>496665.9024310231</v>
       </c>
       <c r="R40" t="n">
-        <v>6926783.280873528</v>
+        <v>6926614.942309056</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5212,7 +5203,7 @@
       </c>
       <c r="AO40" t="inlineStr">
         <is>
-          <t>granlåga</t>
+          <t>silverlåga av tall</t>
         </is>
       </c>
       <c r="AT40" t="inlineStr"/>
@@ -5230,10 +5221,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111281270</v>
+        <v>111281262</v>
       </c>
       <c r="B41" t="n">
-        <v>89558</v>
+        <v>96348</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5246,34 +5237,38 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1503</v>
+        <v>220787</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
       <c r="P41" t="inlineStr">
         <is>
           <t>Gillberget, Jmt</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>496563.6550112463</v>
+        <v>496616.7296099121</v>
       </c>
       <c r="R41" t="n">
-        <v>6926739.47607088</v>
+        <v>6926546.530342954</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5326,11 +5321,6 @@
       </c>
       <c r="AG41" t="b">
         <v>0</v>
-      </c>
-      <c r="AO41" t="inlineStr">
-        <is>
-          <t>silverlåga av tall</t>
-        </is>
       </c>
       <c r="AT41" t="inlineStr"/>
       <c r="AW41" t="inlineStr">
@@ -5347,10 +5337,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111281285</v>
+        <v>111281281</v>
       </c>
       <c r="B42" t="n">
-        <v>77186</v>
+        <v>89646</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5359,25 +5349,25 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>353</v>
+        <v>65</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Fläckporing</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Anthoporia albobrunnea</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Romell) Karasiński &amp; Niemelä</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5387,10 +5377,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>496579.6358092254</v>
+        <v>496561.0017333628</v>
       </c>
       <c r="R42" t="n">
-        <v>6926964.71679607</v>
+        <v>6926861.591357109</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5464,10 +5454,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111281279</v>
+        <v>111281272</v>
       </c>
       <c r="B43" t="n">
-        <v>89646</v>
+        <v>89558</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5480,21 +5470,21 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>65</v>
+        <v>1503</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Fläckporing</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Anthoporia albobrunnea</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Romell) Karasiński &amp; Niemelä</t>
+          <t>(P.Karst.) Miettinen</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5504,10 +5494,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>496642.9768015828</v>
+        <v>496568.949568422</v>
       </c>
       <c r="R43" t="n">
-        <v>6926849.481709071</v>
+        <v>6926932.813421207</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5581,10 +5571,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111281263</v>
+        <v>111281241</v>
       </c>
       <c r="B44" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5593,42 +5583,38 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
           <t>Gillberget, Jmt</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>496579.6887450082</v>
+        <v>496699.8856361908</v>
       </c>
       <c r="R44" t="n">
-        <v>6926565.071416504</v>
+        <v>6926783.280873528</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5681,6 +5667,11 @@
       </c>
       <c r="AG44" t="b">
         <v>0</v>
+      </c>
+      <c r="AO44" t="inlineStr">
+        <is>
+          <t>granlåga</t>
+        </is>
       </c>
       <c r="AT44" t="inlineStr"/>
       <c r="AW44" t="inlineStr">
@@ -5697,10 +5688,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111281248</v>
+        <v>111281253</v>
       </c>
       <c r="B45" t="n">
-        <v>77268</v>
+        <v>78578</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5713,21 +5704,21 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>228912</v>
+        <v>6458</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5737,10 +5728,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>496606.9971573526</v>
+        <v>496695.2314597658</v>
       </c>
       <c r="R45" t="n">
-        <v>6926542.376992855</v>
+        <v>6926761.083019028</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5796,7 +5787,7 @@
       </c>
       <c r="AO45" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>på björk</t>
         </is>
       </c>
       <c r="AT45" t="inlineStr"/>
@@ -5814,10 +5805,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111281246</v>
+        <v>111281269</v>
       </c>
       <c r="B46" t="n">
-        <v>77268</v>
+        <v>89419</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5830,21 +5821,21 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>228912</v>
+        <v>1204</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5854,10 +5845,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>496624.0570633508</v>
+        <v>496563.6550112463</v>
       </c>
       <c r="R46" t="n">
-        <v>6926920.268809941</v>
+        <v>6926739.47607088</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5913,7 +5904,7 @@
       </c>
       <c r="AO46" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>silverlåga av tall</t>
         </is>
       </c>
       <c r="AT46" t="inlineStr"/>
@@ -5931,10 +5922,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111281269</v>
+        <v>111281276</v>
       </c>
       <c r="B47" t="n">
-        <v>89419</v>
+        <v>77515</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5947,21 +5938,21 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1204</v>
+        <v>6425</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5971,10 +5962,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>496563.6550112463</v>
+        <v>496637.7400966059</v>
       </c>
       <c r="R47" t="n">
-        <v>6926739.47607088</v>
+        <v>6926709.334209003</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -6030,7 +6021,7 @@
       </c>
       <c r="AO47" t="inlineStr">
         <is>
-          <t>silverlåga av tall</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AT47" t="inlineStr"/>
@@ -6048,10 +6039,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111281275</v>
+        <v>111281254</v>
       </c>
       <c r="B48" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6064,21 +6055,21 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -6088,10 +6079,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>496692.9323558767</v>
+        <v>496629.4488310875</v>
       </c>
       <c r="R48" t="n">
-        <v>6926778.199715743</v>
+        <v>6926755.598279858</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6147,7 +6138,7 @@
       </c>
       <c r="AO48" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AT48" t="inlineStr"/>
@@ -6165,10 +6156,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111281240</v>
+        <v>111281249</v>
       </c>
       <c r="B49" t="n">
-        <v>78081</v>
+        <v>77268</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6181,21 +6172,21 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>229821</v>
+        <v>228912</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -6205,10 +6196,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>496573.6224250291</v>
+        <v>496558.0600370161</v>
       </c>
       <c r="R49" t="n">
-        <v>6926972.58588778</v>
+        <v>6926704.32740648</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6264,7 +6255,7 @@
       </c>
       <c r="AO49" t="inlineStr">
         <is>
-          <t>högstubbe av tall med silverved</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT49" t="inlineStr"/>
@@ -6282,10 +6273,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111281277</v>
+        <v>111281235</v>
       </c>
       <c r="B50" t="n">
-        <v>77515</v>
+        <v>89369</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6294,25 +6285,25 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6425</v>
+        <v>5447</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6322,10 +6313,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>496624.6291979352</v>
+        <v>496545.5054465439</v>
       </c>
       <c r="R50" t="n">
-        <v>6926570.576543604</v>
+        <v>6926658.546561619</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6381,7 +6372,7 @@
       </c>
       <c r="AO50" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>silverved av tall</t>
         </is>
       </c>
       <c r="AT50" t="inlineStr"/>
@@ -6399,10 +6390,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111281278</v>
+        <v>111281263</v>
       </c>
       <c r="B51" t="n">
-        <v>77515</v>
+        <v>96348</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6411,38 +6402,42 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6425</v>
+        <v>220787</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
       <c r="P51" t="inlineStr">
         <is>
           <t>Gillberget, Jmt</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>496561.002688279</v>
+        <v>496579.6887450082</v>
       </c>
       <c r="R51" t="n">
-        <v>6926862.516434156</v>
+        <v>6926565.071416504</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6495,11 +6490,6 @@
       </c>
       <c r="AG51" t="b">
         <v>0</v>
-      </c>
-      <c r="AO51" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
       </c>
       <c r="AT51" t="inlineStr"/>
       <c r="AW51" t="inlineStr">
@@ -6516,10 +6506,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111281288</v>
+        <v>111281244</v>
       </c>
       <c r="B52" t="n">
-        <v>90666</v>
+        <v>90670</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6528,25 +6518,25 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>4364</v>
+        <v>4365</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Smalfotad taggsvamp</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum gracilipes</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(P.Karst) P.Karst</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6556,10 +6546,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>496568.949568422</v>
+        <v>496640.1975648754</v>
       </c>
       <c r="R52" t="n">
-        <v>6926932.813421207</v>
+        <v>6926849.484510714</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6612,6 +6602,11 @@
       </c>
       <c r="AG52" t="b">
         <v>0</v>
+      </c>
+      <c r="AO52" t="inlineStr">
+        <is>
+          <t>under silverlåga av tall</t>
+        </is>
       </c>
       <c r="AT52" t="inlineStr"/>
       <c r="AW52" t="inlineStr">
@@ -6628,10 +6623,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111281245</v>
+        <v>111281278</v>
       </c>
       <c r="B53" t="n">
-        <v>90678</v>
+        <v>77515</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6640,25 +6635,25 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>4366</v>
+        <v>6425</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6668,10 +6663,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>496626.6329856353</v>
+        <v>496561.002688279</v>
       </c>
       <c r="R53" t="n">
-        <v>6926719.521743883</v>
+        <v>6926862.516434156</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6724,6 +6719,11 @@
       </c>
       <c r="AG53" t="b">
         <v>0</v>
+      </c>
+      <c r="AO53" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
       </c>
       <c r="AT53" t="inlineStr"/>
       <c r="AW53" t="inlineStr">

--- a/artfynd/A 34481-2023.xlsx
+++ b/artfynd/A 34481-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111281248</v>
+        <v>111281262</v>
       </c>
       <c r="B2" t="n">
-        <v>77268</v>
+        <v>96348</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,38 +692,42 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>228912</v>
+        <v>220787</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr">
         <is>
           <t>Gillberget, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>496606.9971573526</v>
+        <v>496616.7296099121</v>
       </c>
       <c r="R2" t="n">
-        <v>6926542.376992855</v>
+        <v>6926546.530342954</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -776,11 +780,6 @@
       </c>
       <c r="AG2" t="b">
         <v>0</v>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>brandstubbe</t>
-        </is>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
@@ -797,10 +796,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111281256</v>
+        <v>111281251</v>
       </c>
       <c r="B3" t="n">
-        <v>78612</v>
+        <v>77268</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,25 +808,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6464</v>
+        <v>228912</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -837,10 +836,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>496677.6582197697</v>
+        <v>496575.84519295</v>
       </c>
       <c r="R3" t="n">
-        <v>6926790.241205794</v>
+        <v>6926881.927725351</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -896,7 +895,7 @@
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -914,10 +913,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111281271</v>
+        <v>111281246</v>
       </c>
       <c r="B4" t="n">
-        <v>89558</v>
+        <v>77268</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -926,25 +925,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1503</v>
+        <v>228912</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -954,10 +953,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>496583.6304501683</v>
+        <v>496624.0570633508</v>
       </c>
       <c r="R4" t="n">
-        <v>6926794.961784514</v>
+        <v>6926920.268809941</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1013,7 +1012,7 @@
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>silverlåga av tall</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1031,10 +1030,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111281239</v>
+        <v>111281285</v>
       </c>
       <c r="B5" t="n">
-        <v>78107</v>
+        <v>77186</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1047,21 +1046,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6453</v>
+        <v>353</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1071,10 +1070,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>496575.917928295</v>
+        <v>496579.6358092254</v>
       </c>
       <c r="R5" t="n">
-        <v>6926952.694948904</v>
+        <v>6926964.71679607</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1130,7 +1129,7 @@
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>silverved av tall</t>
+          <t>silverlåga av tall</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1148,10 +1147,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111281283</v>
+        <v>111281244</v>
       </c>
       <c r="B6" t="n">
-        <v>77186</v>
+        <v>90670</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1160,25 +1159,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>353</v>
+        <v>4365</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Smalfotad taggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Hydnellum gracilipes</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(P.Karst) P.Karst</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1188,10 +1187,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>496655.325024083</v>
+        <v>496640.1975648754</v>
       </c>
       <c r="R6" t="n">
-        <v>6926691.739178178</v>
+        <v>6926849.484510714</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1247,7 +1246,7 @@
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>silverlåga av tall</t>
+          <t>under silverlåga av tall</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1265,10 +1264,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111281289</v>
+        <v>111281283</v>
       </c>
       <c r="B7" t="n">
-        <v>90666</v>
+        <v>77186</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1277,25 +1276,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4364</v>
+        <v>353</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1305,10 +1304,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>496579.6391333495</v>
+        <v>496655.325024083</v>
       </c>
       <c r="R7" t="n">
-        <v>6926967.954464672</v>
+        <v>6926691.739178178</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1361,6 +1360,11 @@
       </c>
       <c r="AG7" t="b">
         <v>0</v>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>silverlåga av tall</t>
+        </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
@@ -1377,10 +1381,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111281261</v>
+        <v>111281231</v>
       </c>
       <c r="B8" t="n">
-        <v>77267</v>
+        <v>76513</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1393,21 +1397,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6446</v>
+        <v>314</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Vitskaftad svartspik</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Chaenothecopsis viridialba</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Kremp.) A.F.W.Schmidt</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1417,10 +1421,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>496553.8972199965</v>
+        <v>496689.2077818657</v>
       </c>
       <c r="R8" t="n">
-        <v>6926710.344995264</v>
+        <v>6926759.2387872</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1476,7 +1480,7 @@
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>gammal gran</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1494,10 +1498,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111281264</v>
+        <v>111281247</v>
       </c>
       <c r="B9" t="n">
-        <v>96348</v>
+        <v>77268</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1506,42 +1510,38 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>220787</v>
+        <v>228912</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Gillberget, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>496556.108160441</v>
+        <v>496618.1179460838</v>
       </c>
       <c r="R9" t="n">
-        <v>6926608.577955151</v>
+        <v>6926545.141185198</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1594,6 +1594,11 @@
       </c>
       <c r="AG9" t="b">
         <v>0</v>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>brandstubbe</t>
+        </is>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
@@ -1610,10 +1615,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111281232</v>
+        <v>111281235</v>
       </c>
       <c r="B10" t="n">
-        <v>94134</v>
+        <v>89369</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1622,25 +1627,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>53</v>
+        <v>5447</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1650,10 +1655,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>496707.2746812074</v>
+        <v>496545.5054465439</v>
       </c>
       <c r="R10" t="n">
-        <v>6926760.608541816</v>
+        <v>6926658.546561619</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1709,7 +1714,7 @@
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>gammal sälglåga</t>
+          <t>silverved av tall</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1727,10 +1732,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111281240</v>
+        <v>111281255</v>
       </c>
       <c r="B11" t="n">
-        <v>78081</v>
+        <v>78578</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1743,21 +1748,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>229821</v>
+        <v>6458</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1767,10 +1772,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>496573.6224250291</v>
+        <v>496554.2561587489</v>
       </c>
       <c r="R11" t="n">
-        <v>6926972.58588778</v>
+        <v>6926609.505018027</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1826,7 +1831,7 @@
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>högstubbe av tall med silverved</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -1844,10 +1849,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111281242</v>
+        <v>111281264</v>
       </c>
       <c r="B12" t="n">
-        <v>78605</v>
+        <v>96348</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1856,38 +1861,42 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6462</v>
+        <v>220787</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
       <c r="P12" t="inlineStr">
         <is>
           <t>Gillberget, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>496575.966141845</v>
+        <v>496556.108160441</v>
       </c>
       <c r="R12" t="n">
-        <v>6926548.884896409</v>
+        <v>6926608.577955151</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1940,11 +1949,6 @@
       </c>
       <c r="AG12" t="b">
         <v>0</v>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
@@ -1961,10 +1965,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111281237</v>
+        <v>111281275</v>
       </c>
       <c r="B13" t="n">
-        <v>78107</v>
+        <v>77515</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1977,21 +1981,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6453</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2001,10 +2005,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>496656.1674542476</v>
+        <v>496692.9323558767</v>
       </c>
       <c r="R13" t="n">
-        <v>6926608.013459719</v>
+        <v>6926778.199715743</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2060,7 +2064,7 @@
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>silverved av tall</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -2078,10 +2082,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111281250</v>
+        <v>111281265</v>
       </c>
       <c r="B14" t="n">
-        <v>77268</v>
+        <v>96348</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2090,38 +2094,42 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>228912</v>
+        <v>220787</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
       <c r="P14" t="inlineStr">
         <is>
           <t>Gillberget, Jmt</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>496563.6550112463</v>
+        <v>496555.6884360826</v>
       </c>
       <c r="R14" t="n">
-        <v>6926739.47607088</v>
+        <v>6926650.672367671</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2174,11 +2182,6 @@
       </c>
       <c r="AG14" t="b">
         <v>0</v>
-      </c>
-      <c r="AO14" t="inlineStr">
-        <is>
-          <t>brandstubbe</t>
-        </is>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
@@ -2195,10 +2198,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111281287</v>
+        <v>111281282</v>
       </c>
       <c r="B15" t="n">
-        <v>90666</v>
+        <v>77186</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2207,25 +2210,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4364</v>
+        <v>353</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2235,10 +2238,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>496548.7935943817</v>
+        <v>496633.1606611336</v>
       </c>
       <c r="R15" t="n">
-        <v>6926702.486748385</v>
+        <v>6926761.607719867</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2291,6 +2294,11 @@
       </c>
       <c r="AG15" t="b">
         <v>0</v>
+      </c>
+      <c r="AO15" t="inlineStr">
+        <is>
+          <t>silverlåga av tall</t>
+        </is>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
@@ -2307,10 +2315,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111281251</v>
+        <v>111281232</v>
       </c>
       <c r="B16" t="n">
-        <v>77268</v>
+        <v>94134</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2323,21 +2331,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>228912</v>
+        <v>53</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2347,10 +2355,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>496575.84519295</v>
+        <v>496707.2746812074</v>
       </c>
       <c r="R16" t="n">
-        <v>6926881.927725351</v>
+        <v>6926760.608541816</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2406,7 +2414,7 @@
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>gammal sälglåga</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
@@ -2424,10 +2432,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111281284</v>
+        <v>111281287</v>
       </c>
       <c r="B17" t="n">
-        <v>77186</v>
+        <v>90666</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2436,25 +2444,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>353</v>
+        <v>4364</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2464,10 +2472,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>496664.975027544</v>
+        <v>496548.7935943817</v>
       </c>
       <c r="R17" t="n">
-        <v>6926614.018090701</v>
+        <v>6926702.486748385</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2520,11 +2528,6 @@
       </c>
       <c r="AG17" t="b">
         <v>0</v>
-      </c>
-      <c r="AO17" t="inlineStr">
-        <is>
-          <t>silverlåga av tall</t>
-        </is>
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
@@ -2541,10 +2544,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111281233</v>
+        <v>111281280</v>
       </c>
       <c r="B18" t="n">
-        <v>94134</v>
+        <v>89646</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2553,25 +2556,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Fläckporing</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Anthoporia albobrunnea</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Romell) Karasiński &amp; Niemelä</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2581,10 +2584,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>496568.949568422</v>
+        <v>496626.6329856353</v>
       </c>
       <c r="R18" t="n">
-        <v>6926932.813421207</v>
+        <v>6926719.521743883</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2640,7 +2643,7 @@
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>tallåga</t>
+          <t>silverlåga av tall</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr"/>
@@ -2658,10 +2661,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111281266</v>
+        <v>111281254</v>
       </c>
       <c r="B19" t="n">
-        <v>89401</v>
+        <v>78578</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2674,21 +2677,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1108</v>
+        <v>6458</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2698,10 +2701,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>496675.8109005511</v>
+        <v>496629.4488310875</v>
       </c>
       <c r="R19" t="n">
-        <v>6926795.79363091</v>
+        <v>6926755.598279858</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2757,7 +2760,7 @@
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>torrträd av gran</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr"/>
@@ -2775,10 +2778,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111281238</v>
+        <v>111281284</v>
       </c>
       <c r="B20" t="n">
-        <v>78107</v>
+        <v>77186</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2791,21 +2794,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6453</v>
+        <v>353</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2815,10 +2818,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>496550.6599095054</v>
+        <v>496664.975027544</v>
       </c>
       <c r="R20" t="n">
-        <v>6926715.436501636</v>
+        <v>6926614.018090701</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2874,7 +2877,7 @@
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>silverved av tall</t>
+          <t>silverlåga av tall</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr"/>
@@ -2892,10 +2895,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111281245</v>
+        <v>111281240</v>
       </c>
       <c r="B21" t="n">
-        <v>90678</v>
+        <v>78081</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2904,25 +2907,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>4366</v>
+        <v>229821</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2932,10 +2935,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>496626.6329856353</v>
+        <v>496573.6224250291</v>
       </c>
       <c r="R21" t="n">
-        <v>6926719.521743883</v>
+        <v>6926972.58588778</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2988,6 +2991,11 @@
       </c>
       <c r="AG21" t="b">
         <v>0</v>
+      </c>
+      <c r="AO21" t="inlineStr">
+        <is>
+          <t>högstubbe av tall med silverved</t>
+        </is>
       </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
@@ -3004,10 +3012,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111281275</v>
+        <v>111281245</v>
       </c>
       <c r="B22" t="n">
-        <v>77515</v>
+        <v>90678</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3016,25 +3024,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6425</v>
+        <v>4366</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3044,10 +3052,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>496692.9323558767</v>
+        <v>496626.6329856353</v>
       </c>
       <c r="R22" t="n">
-        <v>6926778.199715743</v>
+        <v>6926719.521743883</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3100,11 +3108,6 @@
       </c>
       <c r="AG22" t="b">
         <v>0</v>
-      </c>
-      <c r="AO22" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
@@ -3121,10 +3124,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111281259</v>
+        <v>111281270</v>
       </c>
       <c r="B23" t="n">
-        <v>79444</v>
+        <v>89558</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3133,25 +3136,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1049</v>
+        <v>1503</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(P.Karst.) Miettinen</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3161,10 +3164,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>496656.1683827193</v>
+        <v>496563.6550112463</v>
       </c>
       <c r="R23" t="n">
-        <v>6926608.938606965</v>
+        <v>6926739.47607088</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3220,7 +3223,7 @@
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>gammal gran</t>
+          <t>silverlåga av tall</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr"/>
@@ -3238,10 +3241,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111281247</v>
+        <v>111281289</v>
       </c>
       <c r="B24" t="n">
-        <v>77268</v>
+        <v>90666</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3250,25 +3253,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>228912</v>
+        <v>4364</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3278,10 +3281,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>496618.1179460838</v>
+        <v>496579.6391333495</v>
       </c>
       <c r="R24" t="n">
-        <v>6926545.141185198</v>
+        <v>6926967.954464672</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3334,11 +3337,6 @@
       </c>
       <c r="AG24" t="b">
         <v>0</v>
-      </c>
-      <c r="AO24" t="inlineStr">
-        <is>
-          <t>brandstubbe</t>
-        </is>
       </c>
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
@@ -3355,10 +3353,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111281258</v>
+        <v>111281248</v>
       </c>
       <c r="B25" t="n">
-        <v>89864</v>
+        <v>77268</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3371,21 +3369,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>5467</v>
+        <v>228912</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Kådvaxskinn</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Phlebia serialis</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Donk</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3395,10 +3393,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>496668.6966633182</v>
+        <v>496606.9971573526</v>
       </c>
       <c r="R25" t="n">
-        <v>6926629.74182343</v>
+        <v>6926542.376992855</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3454,7 +3452,7 @@
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>silverlåga av tall</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr"/>
@@ -3472,10 +3470,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111281285</v>
+        <v>111281277</v>
       </c>
       <c r="B26" t="n">
-        <v>77186</v>
+        <v>77515</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3488,21 +3486,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>353</v>
+        <v>6425</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3512,10 +3510,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>496579.6358092254</v>
+        <v>496624.6291979352</v>
       </c>
       <c r="R26" t="n">
-        <v>6926964.71679607</v>
+        <v>6926570.576543604</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3571,7 +3569,7 @@
       </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>silverlåga av tall</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AT26" t="inlineStr"/>
@@ -3589,10 +3587,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111281270</v>
+        <v>111281259</v>
       </c>
       <c r="B27" t="n">
-        <v>89558</v>
+        <v>79444</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3601,25 +3599,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1503</v>
+        <v>1049</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3629,10 +3627,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>496563.6550112463</v>
+        <v>496656.1683827193</v>
       </c>
       <c r="R27" t="n">
-        <v>6926739.47607088</v>
+        <v>6926608.938606965</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3688,7 +3686,7 @@
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>silverlåga av tall</t>
+          <t>gammal gran</t>
         </is>
       </c>
       <c r="AT27" t="inlineStr"/>
@@ -3706,10 +3704,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111281265</v>
+        <v>111281274</v>
       </c>
       <c r="B28" t="n">
-        <v>96348</v>
+        <v>77515</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3718,42 +3716,38 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>220787</v>
+        <v>6425</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
           <t>Gillberget, Jmt</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>496555.6884360826</v>
+        <v>496615.1943032123</v>
       </c>
       <c r="R28" t="n">
-        <v>6926650.672367671</v>
+        <v>6926859.223161129</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3806,6 +3800,11 @@
       </c>
       <c r="AG28" t="b">
         <v>0</v>
+      </c>
+      <c r="AO28" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
       </c>
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
@@ -3822,10 +3821,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111281268</v>
+        <v>111281237</v>
       </c>
       <c r="B29" t="n">
-        <v>89419</v>
+        <v>78107</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3838,21 +3837,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1204</v>
+        <v>6453</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3862,10 +3861,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>496621.8333135686</v>
+        <v>496656.1674542476</v>
       </c>
       <c r="R29" t="n">
-        <v>6926554.389060779</v>
+        <v>6926608.013459719</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3921,7 +3920,7 @@
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>silverlåga av tall</t>
+          <t>silverved av tall</t>
         </is>
       </c>
       <c r="AT29" t="inlineStr"/>
@@ -3939,10 +3938,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111281282</v>
+        <v>111281288</v>
       </c>
       <c r="B30" t="n">
-        <v>77186</v>
+        <v>90666</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3951,25 +3950,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>353</v>
+        <v>4364</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3979,10 +3978,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>496633.1606611336</v>
+        <v>496568.949568422</v>
       </c>
       <c r="R30" t="n">
-        <v>6926761.607719867</v>
+        <v>6926932.813421207</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4035,11 +4034,6 @@
       </c>
       <c r="AG30" t="b">
         <v>0</v>
-      </c>
-      <c r="AO30" t="inlineStr">
-        <is>
-          <t>silverlåga av tall</t>
-        </is>
       </c>
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
@@ -4056,10 +4050,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111281288</v>
+        <v>111281281</v>
       </c>
       <c r="B31" t="n">
-        <v>90666</v>
+        <v>89646</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4068,25 +4062,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>4364</v>
+        <v>65</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Fläckporing</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Anthoporia albobrunnea</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Romell) Karasiński &amp; Niemelä</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4096,10 +4090,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>496568.949568422</v>
+        <v>496561.0017333628</v>
       </c>
       <c r="R31" t="n">
-        <v>6926932.813421207</v>
+        <v>6926861.591357109</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4152,6 +4146,11 @@
       </c>
       <c r="AG31" t="b">
         <v>0</v>
+      </c>
+      <c r="AO31" t="inlineStr">
+        <is>
+          <t>silverlåga av tall</t>
+        </is>
       </c>
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
@@ -4168,10 +4167,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111281246</v>
+        <v>111281242</v>
       </c>
       <c r="B32" t="n">
-        <v>77268</v>
+        <v>78605</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4180,25 +4179,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>228912</v>
+        <v>6462</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4208,10 +4207,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>496624.0570633508</v>
+        <v>496575.966141845</v>
       </c>
       <c r="R32" t="n">
-        <v>6926920.268809941</v>
+        <v>6926548.884896409</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4267,7 +4266,7 @@
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AT32" t="inlineStr"/>
@@ -4285,10 +4284,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111281274</v>
+        <v>111281252</v>
       </c>
       <c r="B33" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4301,21 +4300,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4325,10 +4324,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>496615.1943032123</v>
+        <v>496675.8039778076</v>
       </c>
       <c r="R33" t="n">
-        <v>6926859.223161129</v>
+        <v>6926788.855408332</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4384,7 +4383,7 @@
       </c>
       <c r="AO33" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AT33" t="inlineStr"/>
@@ -4402,10 +4401,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111281252</v>
+        <v>111281268</v>
       </c>
       <c r="B34" t="n">
-        <v>78578</v>
+        <v>89419</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4418,21 +4417,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6458</v>
+        <v>1204</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4442,10 +4441,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>496675.8039778076</v>
+        <v>496621.8333135686</v>
       </c>
       <c r="R34" t="n">
-        <v>6926788.855408332</v>
+        <v>6926554.389060779</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4501,7 +4500,7 @@
       </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>silverlåga av tall</t>
         </is>
       </c>
       <c r="AT34" t="inlineStr"/>
@@ -4519,10 +4518,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111281255</v>
+        <v>111281238</v>
       </c>
       <c r="B35" t="n">
-        <v>78578</v>
+        <v>78107</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4535,21 +4534,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6458</v>
+        <v>6453</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4559,10 +4558,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>496554.2561587489</v>
+        <v>496550.6599095054</v>
       </c>
       <c r="R35" t="n">
-        <v>6926609.505018027</v>
+        <v>6926715.436501636</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4618,7 +4617,7 @@
       </c>
       <c r="AO35" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>silverved av tall</t>
         </is>
       </c>
       <c r="AT35" t="inlineStr"/>
@@ -4636,10 +4635,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111281280</v>
+        <v>111281250</v>
       </c>
       <c r="B36" t="n">
-        <v>89646</v>
+        <v>77268</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4648,25 +4647,25 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>65</v>
+        <v>228912</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Fläckporing</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Anthoporia albobrunnea</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Romell) Karasiński &amp; Niemelä</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4676,10 +4675,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>496626.6329856353</v>
+        <v>496563.6550112463</v>
       </c>
       <c r="R36" t="n">
-        <v>6926719.521743883</v>
+        <v>6926739.47607088</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4735,7 +4734,7 @@
       </c>
       <c r="AO36" t="inlineStr">
         <is>
-          <t>silverlåga av tall</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT36" t="inlineStr"/>
@@ -4753,10 +4752,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111281279</v>
+        <v>111281261</v>
       </c>
       <c r="B37" t="n">
-        <v>89646</v>
+        <v>77267</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4765,25 +4764,25 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>65</v>
+        <v>6446</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Fläckporing</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Anthoporia albobrunnea</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Romell) Karasiński &amp; Niemelä</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4793,10 +4792,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>496642.9768015828</v>
+        <v>496553.8972199965</v>
       </c>
       <c r="R37" t="n">
-        <v>6926849.481709071</v>
+        <v>6926710.344995264</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4852,7 +4851,7 @@
       </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>silverlåga av tall</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT37" t="inlineStr"/>
@@ -4870,10 +4869,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111281277</v>
+        <v>111281249</v>
       </c>
       <c r="B38" t="n">
-        <v>77515</v>
+        <v>77268</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4886,21 +4885,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4910,10 +4909,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>496624.6291979352</v>
+        <v>496558.0600370161</v>
       </c>
       <c r="R38" t="n">
-        <v>6926570.576543604</v>
+        <v>6926704.32740648</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4969,7 +4968,7 @@
       </c>
       <c r="AO38" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>brandstubbe</t>
         </is>
       </c>
       <c r="AT38" t="inlineStr"/>
@@ -4987,10 +4986,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111281231</v>
+        <v>111281258</v>
       </c>
       <c r="B39" t="n">
-        <v>76513</v>
+        <v>89864</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5003,21 +5002,21 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>314</v>
+        <v>5467</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Vitskaftad svartspik</t>
+          <t>Kådvaxskinn</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Chaenothecopsis viridialba</t>
+          <t>Phlebia serialis</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Kremp.) A.F.W.Schmidt</t>
+          <t>(Fr.:Fr.) Donk</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -5027,10 +5026,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>496689.2077818657</v>
+        <v>496668.6966633182</v>
       </c>
       <c r="R39" t="n">
-        <v>6926759.2387872</v>
+        <v>6926629.74182343</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5086,7 +5085,7 @@
       </c>
       <c r="AO39" t="inlineStr">
         <is>
-          <t>gammal gran</t>
+          <t>silverlåga av tall</t>
         </is>
       </c>
       <c r="AT39" t="inlineStr"/>
@@ -5104,10 +5103,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111281267</v>
+        <v>111281266</v>
       </c>
       <c r="B40" t="n">
-        <v>89419</v>
+        <v>89401</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5120,21 +5119,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>1204</v>
+        <v>1108</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5144,10 +5143,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>496665.9024310231</v>
+        <v>496675.8109005511</v>
       </c>
       <c r="R40" t="n">
-        <v>6926614.942309056</v>
+        <v>6926795.79363091</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5203,7 +5202,7 @@
       </c>
       <c r="AO40" t="inlineStr">
         <is>
-          <t>silverlåga av tall</t>
+          <t>torrträd av gran</t>
         </is>
       </c>
       <c r="AT40" t="inlineStr"/>
@@ -5221,10 +5220,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111281262</v>
+        <v>111281267</v>
       </c>
       <c r="B41" t="n">
-        <v>96348</v>
+        <v>89419</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5233,42 +5232,38 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>220787</v>
+        <v>1204</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
           <t>Gillberget, Jmt</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>496616.7296099121</v>
+        <v>496665.9024310231</v>
       </c>
       <c r="R41" t="n">
-        <v>6926546.530342954</v>
+        <v>6926614.942309056</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5321,6 +5316,11 @@
       </c>
       <c r="AG41" t="b">
         <v>0</v>
+      </c>
+      <c r="AO41" t="inlineStr">
+        <is>
+          <t>silverlåga av tall</t>
+        </is>
       </c>
       <c r="AT41" t="inlineStr"/>
       <c r="AW41" t="inlineStr">
@@ -5337,10 +5337,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111281281</v>
+        <v>111281272</v>
       </c>
       <c r="B42" t="n">
-        <v>89646</v>
+        <v>89558</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5353,21 +5353,21 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>65</v>
+        <v>1503</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Fläckporing</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Anthoporia albobrunnea</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Romell) Karasiński &amp; Niemelä</t>
+          <t>(P.Karst.) Miettinen</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5377,10 +5377,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>496561.0017333628</v>
+        <v>496568.949568422</v>
       </c>
       <c r="R42" t="n">
-        <v>6926861.591357109</v>
+        <v>6926932.813421207</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5454,10 +5454,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111281272</v>
+        <v>111281278</v>
       </c>
       <c r="B43" t="n">
-        <v>89558</v>
+        <v>77515</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5466,25 +5466,25 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>1503</v>
+        <v>6425</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5494,10 +5494,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>496568.949568422</v>
+        <v>496561.002688279</v>
       </c>
       <c r="R43" t="n">
-        <v>6926932.813421207</v>
+        <v>6926862.516434156</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5553,7 +5553,7 @@
       </c>
       <c r="AO43" t="inlineStr">
         <is>
-          <t>silverlåga av tall</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AT43" t="inlineStr"/>
@@ -5571,10 +5571,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111281241</v>
+        <v>111281263</v>
       </c>
       <c r="B44" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5583,38 +5583,42 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
       <c r="P44" t="inlineStr">
         <is>
           <t>Gillberget, Jmt</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>496699.8856361908</v>
+        <v>496579.6887450082</v>
       </c>
       <c r="R44" t="n">
-        <v>6926783.280873528</v>
+        <v>6926565.071416504</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5667,11 +5671,6 @@
       </c>
       <c r="AG44" t="b">
         <v>0</v>
-      </c>
-      <c r="AO44" t="inlineStr">
-        <is>
-          <t>granlåga</t>
-        </is>
       </c>
       <c r="AT44" t="inlineStr"/>
       <c r="AW44" t="inlineStr">
@@ -5688,10 +5687,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111281253</v>
+        <v>111281241</v>
       </c>
       <c r="B45" t="n">
-        <v>78578</v>
+        <v>89405</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5704,21 +5703,21 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5728,10 +5727,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>496695.2314597658</v>
+        <v>496699.8856361908</v>
       </c>
       <c r="R45" t="n">
-        <v>6926761.083019028</v>
+        <v>6926783.280873528</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5787,7 +5786,7 @@
       </c>
       <c r="AO45" t="inlineStr">
         <is>
-          <t>på björk</t>
+          <t>granlåga</t>
         </is>
       </c>
       <c r="AT45" t="inlineStr"/>
@@ -5805,10 +5804,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111281269</v>
+        <v>111281253</v>
       </c>
       <c r="B46" t="n">
-        <v>89419</v>
+        <v>78578</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5821,21 +5820,21 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>1204</v>
+        <v>6458</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5845,10 +5844,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>496563.6550112463</v>
+        <v>496695.2314597658</v>
       </c>
       <c r="R46" t="n">
-        <v>6926739.47607088</v>
+        <v>6926761.083019028</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5904,7 +5903,7 @@
       </c>
       <c r="AO46" t="inlineStr">
         <is>
-          <t>silverlåga av tall</t>
+          <t>på björk</t>
         </is>
       </c>
       <c r="AT46" t="inlineStr"/>
@@ -5922,10 +5921,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111281276</v>
+        <v>111281279</v>
       </c>
       <c r="B47" t="n">
-        <v>77515</v>
+        <v>89646</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5934,25 +5933,25 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6425</v>
+        <v>65</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Fläckporing</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Anthoporia albobrunnea</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Romell) Karasiński &amp; Niemelä</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5962,10 +5961,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>496637.7400966059</v>
+        <v>496642.9768015828</v>
       </c>
       <c r="R47" t="n">
-        <v>6926709.334209003</v>
+        <v>6926849.481709071</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -6021,7 +6020,7 @@
       </c>
       <c r="AO47" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>silverlåga av tall</t>
         </is>
       </c>
       <c r="AT47" t="inlineStr"/>
@@ -6039,10 +6038,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111281254</v>
+        <v>111281256</v>
       </c>
       <c r="B48" t="n">
-        <v>78578</v>
+        <v>78612</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6051,25 +6050,25 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6458</v>
+        <v>6464</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -6079,10 +6078,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>496629.4488310875</v>
+        <v>496677.6582197697</v>
       </c>
       <c r="R48" t="n">
-        <v>6926755.598279858</v>
+        <v>6926790.241205794</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6138,7 +6137,7 @@
       </c>
       <c r="AO48" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AT48" t="inlineStr"/>
@@ -6156,10 +6155,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111281249</v>
+        <v>111281271</v>
       </c>
       <c r="B49" t="n">
-        <v>77268</v>
+        <v>89558</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6168,25 +6167,25 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>228912</v>
+        <v>1503</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(P.Karst.) Miettinen</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -6196,10 +6195,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>496558.0600370161</v>
+        <v>496583.6304501683</v>
       </c>
       <c r="R49" t="n">
-        <v>6926704.32740648</v>
+        <v>6926794.961784514</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6255,7 +6254,7 @@
       </c>
       <c r="AO49" t="inlineStr">
         <is>
-          <t>brandstubbe</t>
+          <t>silverlåga av tall</t>
         </is>
       </c>
       <c r="AT49" t="inlineStr"/>
@@ -6273,10 +6272,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111281235</v>
+        <v>111281276</v>
       </c>
       <c r="B50" t="n">
-        <v>89369</v>
+        <v>77515</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6285,25 +6284,25 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>5447</v>
+        <v>6425</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6313,10 +6312,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>496545.5054465439</v>
+        <v>496637.7400966059</v>
       </c>
       <c r="R50" t="n">
-        <v>6926658.546561619</v>
+        <v>6926709.334209003</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6372,7 +6371,7 @@
       </c>
       <c r="AO50" t="inlineStr">
         <is>
-          <t>silverved av tall</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AT50" t="inlineStr"/>
@@ -6390,10 +6389,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111281263</v>
+        <v>111281239</v>
       </c>
       <c r="B51" t="n">
-        <v>96348</v>
+        <v>78107</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6402,42 +6401,38 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>220787</v>
+        <v>6453</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
           <t>Gillberget, Jmt</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>496579.6887450082</v>
+        <v>496575.917928295</v>
       </c>
       <c r="R51" t="n">
-        <v>6926565.071416504</v>
+        <v>6926952.694948904</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6490,6 +6485,11 @@
       </c>
       <c r="AG51" t="b">
         <v>0</v>
+      </c>
+      <c r="AO51" t="inlineStr">
+        <is>
+          <t>silverved av tall</t>
+        </is>
       </c>
       <c r="AT51" t="inlineStr"/>
       <c r="AW51" t="inlineStr">
@@ -6506,10 +6506,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111281244</v>
+        <v>111281233</v>
       </c>
       <c r="B52" t="n">
-        <v>90670</v>
+        <v>94134</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6518,25 +6518,25 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>4365</v>
+        <v>53</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Smalfotad taggsvamp</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Hydnellum gracilipes</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(P.Karst) P.Karst</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6546,10 +6546,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>496640.1975648754</v>
+        <v>496568.949568422</v>
       </c>
       <c r="R52" t="n">
-        <v>6926849.484510714</v>
+        <v>6926932.813421207</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6605,7 +6605,7 @@
       </c>
       <c r="AO52" t="inlineStr">
         <is>
-          <t>under silverlåga av tall</t>
+          <t>tallåga</t>
         </is>
       </c>
       <c r="AT52" t="inlineStr"/>
@@ -6623,10 +6623,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111281278</v>
+        <v>111281269</v>
       </c>
       <c r="B53" t="n">
-        <v>77515</v>
+        <v>89419</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6639,21 +6639,21 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>6425</v>
+        <v>1204</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6663,10 +6663,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>496561.002688279</v>
+        <v>496563.6550112463</v>
       </c>
       <c r="R53" t="n">
-        <v>6926862.516434156</v>
+        <v>6926739.47607088</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6722,7 +6722,7 @@
       </c>
       <c r="AO53" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>silverlåga av tall</t>
         </is>
       </c>
       <c r="AT53" t="inlineStr"/>
@@ -6740,10 +6740,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111536739</v>
+        <v>111536642</v>
       </c>
       <c r="B54" t="n">
-        <v>78578</v>
+        <v>89965</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6752,39 +6752,48 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>6458</v>
+        <v>760</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Doftticka</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Haploporus odorus</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr"/>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Gillån (Gillån), Jmt</t>
+          <t>Gillberget (Gillberget), Jmt</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>496697.6617160611</v>
+        <v>496681.7691028511</v>
       </c>
       <c r="R54" t="n">
-        <v>6926876.254308967</v>
+        <v>6926731.955436752</v>
       </c>
       <c r="S54" t="n">
         <v>20</v>
@@ -6853,10 +6862,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111536642</v>
+        <v>111536659</v>
       </c>
       <c r="B55" t="n">
-        <v>89965</v>
+        <v>78578</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6865,37 +6874,28 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>760</v>
+        <v>6458</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Doftticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Haploporus odorus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Sommerf.) Bondartsev &amp; Singer</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
@@ -6903,10 +6903,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>496681.7691028511</v>
+        <v>496671.579133013</v>
       </c>
       <c r="R55" t="n">
-        <v>6926731.955436752</v>
+        <v>6926732.890714952</v>
       </c>
       <c r="S55" t="n">
         <v>20</v>
@@ -6975,7 +6975,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111536659</v>
+        <v>111536739</v>
       </c>
       <c r="B56" t="n">
         <v>78578</v>
@@ -7012,14 +7012,14 @@
       <c r="K56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Gillberget (Gillberget), Jmt</t>
+          <t>Gillån (Gillån), Jmt</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>496671.579133013</v>
+        <v>496697.6617160611</v>
       </c>
       <c r="R56" t="n">
-        <v>6926732.890714952</v>
+        <v>6926876.254308967</v>
       </c>
       <c r="S56" t="n">
         <v>20</v>

--- a/artfynd/A 34481-2023.xlsx
+++ b/artfynd/A 34481-2023.xlsx
@@ -6740,10 +6740,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111536642</v>
+        <v>111536739</v>
       </c>
       <c r="B54" t="n">
-        <v>89965</v>
+        <v>78578</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6752,48 +6752,39 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>760</v>
+        <v>6458</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Doftticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Haploporus odorus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Sommerf.) Bondartsev &amp; Singer</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Gillberget (Gillberget), Jmt</t>
+          <t>Gillån (Gillån), Jmt</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>496681.7691028511</v>
+        <v>496697.6617160611</v>
       </c>
       <c r="R54" t="n">
-        <v>6926731.955436752</v>
+        <v>6926876.254308967</v>
       </c>
       <c r="S54" t="n">
         <v>20</v>
@@ -6975,10 +6966,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111536739</v>
+        <v>111536642</v>
       </c>
       <c r="B56" t="n">
-        <v>78578</v>
+        <v>89965</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6987,39 +6978,48 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>6458</v>
+        <v>760</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Doftticka</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Haploporus odorus</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr"/>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Gillån (Gillån), Jmt</t>
+          <t>Gillberget (Gillberget), Jmt</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>496697.6617160611</v>
+        <v>496681.7691028511</v>
       </c>
       <c r="R56" t="n">
-        <v>6926876.254308967</v>
+        <v>6926731.955436752</v>
       </c>
       <c r="S56" t="n">
         <v>20</v>

--- a/artfynd/A 34481-2023.xlsx
+++ b/artfynd/A 34481-2023.xlsx
@@ -6740,10 +6740,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111536739</v>
+        <v>111536642</v>
       </c>
       <c r="B54" t="n">
-        <v>78578</v>
+        <v>89965</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6752,39 +6752,48 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>6458</v>
+        <v>760</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Doftticka</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Haploporus odorus</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr"/>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Gillån (Gillån), Jmt</t>
+          <t>Gillberget (Gillberget), Jmt</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>496697.6617160611</v>
+        <v>496681.7691028511</v>
       </c>
       <c r="R54" t="n">
-        <v>6926876.254308967</v>
+        <v>6926731.955436752</v>
       </c>
       <c r="S54" t="n">
         <v>20</v>
@@ -6853,7 +6862,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111536659</v>
+        <v>111536739</v>
       </c>
       <c r="B55" t="n">
         <v>78578</v>
@@ -6890,14 +6899,14 @@
       <c r="K55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Gillberget (Gillberget), Jmt</t>
+          <t>Gillån (Gillån), Jmt</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>496671.579133013</v>
+        <v>496697.6617160611</v>
       </c>
       <c r="R55" t="n">
-        <v>6926732.890714952</v>
+        <v>6926876.254308967</v>
       </c>
       <c r="S55" t="n">
         <v>20</v>
@@ -6966,10 +6975,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111536642</v>
+        <v>111536659</v>
       </c>
       <c r="B56" t="n">
-        <v>89965</v>
+        <v>78578</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6978,37 +6987,28 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>760</v>
+        <v>6458</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Doftticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Haploporus odorus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Sommerf.) Bondartsev &amp; Singer</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
@@ -7016,10 +7016,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>496681.7691028511</v>
+        <v>496671.579133013</v>
       </c>
       <c r="R56" t="n">
-        <v>6926731.955436752</v>
+        <v>6926732.890714952</v>
       </c>
       <c r="S56" t="n">
         <v>20</v>

--- a/artfynd/A 34481-2023.xlsx
+++ b/artfynd/A 34481-2023.xlsx
@@ -6740,10 +6740,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111536642</v>
+        <v>111536739</v>
       </c>
       <c r="B54" t="n">
-        <v>89965</v>
+        <v>78578</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6752,48 +6752,39 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>760</v>
+        <v>6458</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Doftticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Haploporus odorus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Sommerf.) Bondartsev &amp; Singer</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Gillberget (Gillberget), Jmt</t>
+          <t>Gillån (Gillån), Jmt</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>496681.7691028511</v>
+        <v>496697.6617160611</v>
       </c>
       <c r="R54" t="n">
-        <v>6926731.955436752</v>
+        <v>6926876.254308967</v>
       </c>
       <c r="S54" t="n">
         <v>20</v>
@@ -6862,7 +6853,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111536739</v>
+        <v>111536659</v>
       </c>
       <c r="B55" t="n">
         <v>78578</v>
@@ -6899,14 +6890,14 @@
       <c r="K55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Gillån (Gillån), Jmt</t>
+          <t>Gillberget (Gillberget), Jmt</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>496697.6617160611</v>
+        <v>496671.579133013</v>
       </c>
       <c r="R55" t="n">
-        <v>6926876.254308967</v>
+        <v>6926732.890714952</v>
       </c>
       <c r="S55" t="n">
         <v>20</v>
@@ -6975,10 +6966,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111536659</v>
+        <v>111536642</v>
       </c>
       <c r="B56" t="n">
-        <v>78578</v>
+        <v>89965</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6987,28 +6978,37 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>6458</v>
+        <v>760</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Doftticka</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Haploporus odorus</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr"/>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
@@ -7016,10 +7016,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>496671.579133013</v>
+        <v>496681.7691028511</v>
       </c>
       <c r="R56" t="n">
-        <v>6926732.890714952</v>
+        <v>6926731.955436752</v>
       </c>
       <c r="S56" t="n">
         <v>20</v>

--- a/artfynd/A 34481-2023.xlsx
+++ b/artfynd/A 34481-2023.xlsx
@@ -6740,10 +6740,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111536642</v>
+        <v>111536659</v>
       </c>
       <c r="B54" t="n">
-        <v>89965</v>
+        <v>78578</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6752,37 +6752,28 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>760</v>
+        <v>6458</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Doftticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Haploporus odorus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Sommerf.) Bondartsev &amp; Singer</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
@@ -6790,10 +6781,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>496681.7691028511</v>
+        <v>496671.579133013</v>
       </c>
       <c r="R54" t="n">
-        <v>6926731.955436752</v>
+        <v>6926732.890714952</v>
       </c>
       <c r="S54" t="n">
         <v>20</v>
@@ -6862,10 +6853,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111536739</v>
+        <v>111536642</v>
       </c>
       <c r="B55" t="n">
-        <v>78578</v>
+        <v>89965</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6874,39 +6865,48 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>6458</v>
+        <v>760</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Doftticka</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Haploporus odorus</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr"/>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Gillån (Gillån), Jmt</t>
+          <t>Gillberget (Gillberget), Jmt</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>496697.6617160611</v>
+        <v>496681.7691028511</v>
       </c>
       <c r="R55" t="n">
-        <v>6926876.254308967</v>
+        <v>6926731.955436752</v>
       </c>
       <c r="S55" t="n">
         <v>20</v>
@@ -6975,7 +6975,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111536659</v>
+        <v>111536739</v>
       </c>
       <c r="B56" t="n">
         <v>78578</v>
@@ -7012,14 +7012,14 @@
       <c r="K56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Gillberget (Gillberget), Jmt</t>
+          <t>Gillån (Gillån), Jmt</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>496671.579133013</v>
+        <v>496697.6617160611</v>
       </c>
       <c r="R56" t="n">
-        <v>6926732.890714952</v>
+        <v>6926876.254308967</v>
       </c>
       <c r="S56" t="n">
         <v>20</v>
